--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H2">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N2">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q2">
-        <v>569.2500537594728</v>
+        <v>3507.682645546576</v>
       </c>
       <c r="R2">
-        <v>569.2500537594728</v>
+        <v>31569.14380991918</v>
       </c>
       <c r="S2">
-        <v>0.07470372751595074</v>
+        <v>0.23508707934618</v>
       </c>
       <c r="T2">
-        <v>0.07470372751595074</v>
+        <v>0.23508707934618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H3">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N3">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q3">
-        <v>548.9356956275411</v>
+        <v>2171.648245758823</v>
       </c>
       <c r="R3">
-        <v>548.9356956275411</v>
+        <v>19544.83421182941</v>
       </c>
       <c r="S3">
-        <v>0.07203783707900317</v>
+        <v>0.1455452203211347</v>
       </c>
       <c r="T3">
-        <v>0.07203783707900317</v>
+        <v>0.1455452203211347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H4">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N4">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q4">
-        <v>164.4329386691322</v>
+        <v>630.44906575337</v>
       </c>
       <c r="R4">
-        <v>164.4329386691322</v>
+        <v>5674.041591780329</v>
       </c>
       <c r="S4">
-        <v>0.02157883581013448</v>
+        <v>0.04225308972368366</v>
       </c>
       <c r="T4">
-        <v>0.02157883581013448</v>
+        <v>0.04225308972368366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N5">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q5">
-        <v>2218.382879117158</v>
+        <v>3586.890821629729</v>
       </c>
       <c r="R5">
-        <v>2218.382879117158</v>
+        <v>32282.01739466756</v>
       </c>
       <c r="S5">
-        <v>0.2911224496741835</v>
+        <v>0.2403956607252189</v>
       </c>
       <c r="T5">
-        <v>0.2911224496741835</v>
+        <v>0.2403956607252188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N6">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q6">
-        <v>2139.217275209857</v>
+        <v>2220.686974179459</v>
       </c>
       <c r="R6">
-        <v>2139.217275209857</v>
+        <v>19986.18276761513</v>
       </c>
       <c r="S6">
-        <v>0.280733402428831</v>
+        <v>0.1488318264951267</v>
       </c>
       <c r="T6">
-        <v>0.280733402428831</v>
+        <v>0.1488318264951267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N7">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O7">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P7">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q7">
-        <v>640.7996160869125</v>
+        <v>644.6854507567433</v>
       </c>
       <c r="R7">
-        <v>640.7996160869125</v>
+        <v>5802.16905681069</v>
       </c>
       <c r="S7">
-        <v>0.08409330767091902</v>
+        <v>0.04320722112868404</v>
       </c>
       <c r="T7">
-        <v>0.08409330767091902</v>
+        <v>0.04320722112868403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H8">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N8">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O8">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P8">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q8">
-        <v>594.3103870625268</v>
+        <v>1200.067902671034</v>
       </c>
       <c r="R8">
-        <v>594.3103870625268</v>
+        <v>10800.61112403931</v>
       </c>
       <c r="S8">
-        <v>0.0779924409700232</v>
+        <v>0.08042929955884552</v>
       </c>
       <c r="T8">
-        <v>0.0779924409700232</v>
+        <v>0.08042929955884549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H9">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N9">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P9">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q9">
-        <v>573.1017214425909</v>
+        <v>742.9763804133795</v>
       </c>
       <c r="R9">
-        <v>573.1017214425909</v>
+        <v>6686.787423720415</v>
       </c>
       <c r="S9">
-        <v>0.07520918892290429</v>
+        <v>0.04979474055793926</v>
       </c>
       <c r="T9">
-        <v>0.07520918892290429</v>
+        <v>0.04979474055793925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H10">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N10">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O10">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P10">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q10">
-        <v>171.6718387304227</v>
+        <v>215.6927420558217</v>
       </c>
       <c r="R10">
-        <v>171.6718387304227</v>
+        <v>1941.234678502395</v>
       </c>
       <c r="S10">
-        <v>0.02252880992805058</v>
+        <v>0.01445586214318738</v>
       </c>
       <c r="T10">
-        <v>0.02252880992805058</v>
+        <v>0.01445586214318737</v>
       </c>
     </row>
   </sheetData>
